--- a/team_specific_matrix/Dallas_B.xlsx
+++ b/team_specific_matrix/Dallas_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2432432432432433</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="C2">
-        <v>0.5135135135135135</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.2432432432432433</v>
+        <v>0.2027027027027027</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.0945945945945946</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8421052631578947</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1578947368421053</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1111111111111111</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3333333333333333</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.3333333333333333</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="S6">
-        <v>0.2222222222222222</v>
+        <v>0.1923076923076923</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1538461538461539</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="R7">
-        <v>0.07692307692307693</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="S7">
-        <v>0.3846153846153846</v>
+        <v>0.3703703703703703</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,7 +852,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.03125</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03125</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="R8">
         <v>0.125</v>
       </c>
-      <c r="R8">
-        <v>0.1875</v>
-      </c>
       <c r="S8">
-        <v>0.4375</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,13 +911,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1578947368421053</v>
+        <v>0.1875</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.05263157894736842</v>
+        <v>0.03125</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1578947368421053</v>
+        <v>0.125</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.05263157894736842</v>
+        <v>0.125</v>
       </c>
       <c r="R9">
-        <v>0.1052631578947368</v>
+        <v>0.09375</v>
       </c>
       <c r="S9">
-        <v>0.4736842105263158</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1197916666666667</v>
+        <v>0.1094674556213018</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02083333333333333</v>
+        <v>0.02366863905325444</v>
       </c>
       <c r="E10">
-        <v>0.005208333333333333</v>
+        <v>0.002958579881656805</v>
       </c>
       <c r="F10">
-        <v>0.02083333333333333</v>
+        <v>0.03254437869822485</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1197916666666667</v>
+        <v>0.1272189349112426</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.01183431952662722</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2916666666666667</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="R10">
-        <v>0.09895833333333333</v>
+        <v>0.09171597633136094</v>
       </c>
       <c r="S10">
-        <v>0.3229166666666667</v>
+        <v>0.2928994082840237</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.2592592592592592</v>
+        <v>0.2295081967213115</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.03703703703703703</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="K11">
-        <v>0.2962962962962963</v>
+        <v>0.2786885245901639</v>
       </c>
       <c r="L11">
-        <v>0.4074074074074074</v>
+        <v>0.3934426229508197</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>0.01639344262295082</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.5</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4166666666666667</v>
+        <v>0.375</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.08333333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1283,16 +1283,16 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1052631578947368</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="I15">
-        <v>0.1052631578947368</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="J15">
-        <v>0.4210526315789473</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="K15">
-        <v>0.05263157894736842</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1301,10 +1301,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.05263157894736842</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="O15">
-        <v>0.1052631578947368</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1578947368421053</v>
+        <v>0.2162162162162162</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="J16">
-        <v>0.5666666666666667</v>
+        <v>0.5625</v>
       </c>
       <c r="K16">
-        <v>0.1333333333333333</v>
+        <v>0.1458333333333333</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03333333333333333</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.2</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,22 +1395,22 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01449275362318841</v>
+        <v>0.0234375</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1304347826086956</v>
+        <v>0.09375</v>
       </c>
       <c r="I17">
-        <v>0.07246376811594203</v>
+        <v>0.078125</v>
       </c>
       <c r="J17">
-        <v>0.6086956521739131</v>
+        <v>0.5703125</v>
       </c>
       <c r="K17">
-        <v>0.04347826086956522</v>
+        <v>0.0859375</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.02898550724637681</v>
+        <v>0.046875</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1014492753623188</v>
+        <v>0.1015625</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,28 +1460,28 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.03571428571428571</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="I18">
-        <v>0.03571428571428571</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="J18">
-        <v>0.6785714285714286</v>
+        <v>0.7045454545454546</v>
       </c>
       <c r="K18">
-        <v>0.1071428571428571</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03571428571428571</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07142857142857142</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.03571428571428571</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,22 +1513,22 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.007462686567164179</v>
+        <v>0.01809954751131222</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1343283582089552</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="I19">
-        <v>0.08208955223880597</v>
+        <v>0.07239819004524888</v>
       </c>
       <c r="J19">
-        <v>0.4701492537313433</v>
+        <v>0.4751131221719457</v>
       </c>
       <c r="K19">
-        <v>0.05970149253731343</v>
+        <v>0.09502262443438914</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05970149253731343</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1865671641791045</v>
+        <v>0.1447963800904978</v>
       </c>
     </row>
   </sheetData>
